--- a/admin/src/main/resources/template/用户数据批量导入模板.xlsx
+++ b/admin/src/main/resources/template/用户数据批量导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCJX\项目\RedCross\admin\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C1A415-3FDB-4F1D-825E-183F81695BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A2BB0-FE5D-4CE3-953B-F3F0FD2E2183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4912" windowWidth="18000" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,35 +381,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/admin/src/main/resources/template/用户数据批量导入模板.xlsx
+++ b/admin/src/main/resources/template/用户数据批量导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCJX\项目\RedCross\admin\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A2BB0-FE5D-4CE3-953B-F3F0FD2E2183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD01932-64E2-4448-BFC4-9E4F87B41F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +78,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,12 +117,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,42 +424,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="36.86328125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="21.265625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="15.46484375" customWidth="1"/>
+    <col min="8" max="8" width="36.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B31" xr:uid="{E1E7F74C-5D65-410C-BCB4-96DCA8FD3A96}">
+      <formula1>"部长,干事,会长,代理会长,代理部长,志愿者"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="234" sqref="A2:A31" xr:uid="{3ABBE3B1-8500-437F-8112-B095CC924286}">
+      <formula1>"会长团,办公室,宣传部,血液事业部,志愿者部,应急救护部,少数民族志愿者部,青春健康同伴社"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="234" sqref="A1" xr:uid="{DCD522A2-1E67-4912-8E2C-B3301E9FD5FD}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31" xr:uid="{AC66918C-D324-4A2E-8285-67EED6484B32}">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/admin/src/main/resources/template/用户数据批量导入模板.xlsx
+++ b/admin/src/main/resources/template/用户数据批量导入模板.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCJX\项目\RedCross\admin\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD01932-64E2-4448-BFC4-9E4F87B41F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C093EEA-B2C5-4FB0-9216-C749E5F62DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +25,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,13 +80,136 @@
   <si>
     <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院填写需全称具体如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家治理学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济管理学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育学部</t>
+  </si>
+  <si>
+    <t>心理学部</t>
+  </si>
+  <si>
+    <t>体育学院</t>
+  </si>
+  <si>
+    <t>文学院</t>
+  </si>
+  <si>
+    <t>新闻传媒学院</t>
+  </si>
+  <si>
+    <t>外国语学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐学院</t>
+  </si>
+  <si>
+    <t>美术学院</t>
+  </si>
+  <si>
+    <t>历史文化学院 民族学院</t>
+  </si>
+  <si>
+    <t>数学与统计学院</t>
+  </si>
+  <si>
+    <t>物理科学与技术学院</t>
+  </si>
+  <si>
+    <t>化学化工学院</t>
+  </si>
+  <si>
+    <t>生命科学学院</t>
+  </si>
+  <si>
+    <t>地理科学学院</t>
+  </si>
+  <si>
+    <t>材料与能源学院</t>
+  </si>
+  <si>
+    <t>资源环境学院</t>
+  </si>
+  <si>
+    <t>计算机与信息科学学院 软件学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程技术学院</t>
+  </si>
+  <si>
+    <t>食品科学学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园艺园林学院</t>
+  </si>
+  <si>
+    <t>农学与生物科技学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物保护学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物科学技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师教育学院</t>
+  </si>
+  <si>
+    <t>蚕桑纺织与生物质科学学院</t>
+  </si>
+  <si>
+    <t>马克思主义学院</t>
+  </si>
+  <si>
+    <t>电子信息工程学院</t>
+  </si>
+  <si>
+    <t>人工智能学院</t>
+  </si>
+  <si>
+    <t>动物医学院</t>
+  </si>
+  <si>
+    <t>水产学院</t>
+  </si>
+  <si>
+    <t>商贸学院</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +233,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -136,12 +291,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -424,25 +582,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.53125" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
-    <col min="3" max="3" width="36.86328125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="21.265625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="15.46484375" customWidth="1"/>
-    <col min="8" max="8" width="36.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.53125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -459,319 +618,22 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B31" xr:uid="{E1E7F74C-5D65-410C-BCB4-96DCA8FD3A96}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31" xr:uid="{E1E7F74C-5D65-410C-BCB4-96DCA8FD3A96}">
       <formula1>"部长,干事,会长,代理会长,代理部长,志愿者"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="234" sqref="A2:A31" xr:uid="{3ABBE3B1-8500-437F-8112-B095CC924286}">
@@ -781,7 +643,363 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31" xr:uid="{AC66918C-D324-4A2E-8285-67EED6484B32}">
       <formula1>"男,女"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="F1" xr:uid="{F2D3EA31-54CB-49C8-B9C7-4F2BDA8E2A63}"/>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{960B2F2A-FED9-42F0-A056-17AF359AF172}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$2:$B$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C3CADA-9A53-4213-ADDA-7086F6D09683}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="31.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A1)))&amp;""</f>
+        <v>国家治理学院</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A2)))&amp;""</f>
+        <v>法学院</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A3)))&amp;""</f>
+        <v>经济管理学院</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A4)))&amp;""</f>
+        <v>教育学部</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A5)))&amp;""</f>
+        <v>心理学部</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="str" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A6)))&amp;""</f>
+        <v>体育学院</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="str" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A7)))&amp;""</f>
+        <v>文学院</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="str" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A8)))&amp;""</f>
+        <v>新闻传媒学院</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="str" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A9)))&amp;""</f>
+        <v>外国语学院</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A10)))&amp;""</f>
+        <v>音乐学院</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="str" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A11)))&amp;""</f>
+        <v>美术学院</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="str" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A12)))&amp;""</f>
+        <v>历史文化学院 民族学院</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="str" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A13)))&amp;""</f>
+        <v>数学与统计学院</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="str" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A14)))&amp;""</f>
+        <v>物理科学与技术学院</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="str" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A15)))&amp;""</f>
+        <v>化学化工学院</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="str" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A16)))&amp;""</f>
+        <v>生命科学学院</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="str" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A17)))&amp;""</f>
+        <v>地理科学学院</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="str" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A18)))&amp;""</f>
+        <v>材料与能源学院</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="str" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A19)))&amp;""</f>
+        <v>资源环境学院</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="str" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A20)))&amp;""</f>
+        <v>计算机与信息科学学院 软件学院</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="str" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A21)))&amp;""</f>
+        <v>工程技术学院</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="str" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A22)))&amp;""</f>
+        <v>食品科学学院</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="str" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A23)))&amp;""</f>
+        <v>园艺园林学院</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="str" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A24)))&amp;""</f>
+        <v>农学与生物科技学院</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="str" cm="1">
+        <f t="array" aca="1" ref="B26" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A25)))&amp;""</f>
+        <v>植物保护学院</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="str" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A26)))&amp;""</f>
+        <v>动物科学技术学院</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="str" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A27)))&amp;""</f>
+        <v>药学院</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="str" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A28)))&amp;""</f>
+        <v>教师教育学院</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="str" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A29)))&amp;""</f>
+        <v>蚕桑纺织与生物质科学学院</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="str" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A30)))&amp;""</f>
+        <v>马克思主义学院</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="str" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A31)))&amp;""</f>
+        <v>电子信息工程学院</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="str" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A32)))&amp;""</f>
+        <v>人工智能学院</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="str" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A33)))&amp;""</f>
+        <v>动物医学院</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="str" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A34)))&amp;""</f>
+        <v>水产学院</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="str" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),$A$2:$A$36)),ROW($A$2:$A$36),4^8),ROW(A35)))&amp;""</f>
+        <v>商贸学院</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>